--- a/medicine/Enfance/Joelle_Charbonneau/Joelle_Charbonneau.xlsx
+++ b/medicine/Enfance/Joelle_Charbonneau/Joelle_Charbonneau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joelle Charbonneau, née le 4 novembre 1974 à côté de Chicago dans l'État d'Illinois, est une romancière américaine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joelle Charbonneau a fait des études de musique et de chant classique avant de débuter comme chanteuse d'opéra et de devenir professeur de chant. Elle raconte alors de nombreuses histoires et se décide à faire de cette activité la principale en écrivant des romans pour les enfants et les adolescents.
 </t>
@@ -544,23 +558,164 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Rebecca Robbins Mysteries
-(en) Skating Around the Law, 2010
+          <t>Série Rebecca Robbins Mysteries</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Skating Around the Law, 2010
 (en) Skating on the Edge, 2012
-(en) Skating Under the Wire, 2013
-Série Glee Club
-(en) Murder for Choir, 2011
+(en) Skating Under the Wire, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joelle_Charbonneau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joelle_Charbonneau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Glee Club</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Murder for Choir, 2011
 (en) End me a Tenor, 2012
-(en) A Chorus Lineup, 2013
-Série L'Élite
-Résilience, Milan, coll. « Macadam », 2014 ((en) The Testing, 2012)  (ISBN 978-2-7459-6150-1)
+(en) A Chorus Lineup, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joelle_Charbonneau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joelle_Charbonneau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série L'Élite</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Résilience, Milan, coll. « Macadam », 2014 ((en) The Testing, 2012)  (ISBN 978-2-7459-6150-1)
 Sous surveillance, Milan, coll. « Macadam », 2014 ((en) Independent Study, 2013)  (ISBN 978-2-7459-6151-8)
-Dernière Épreuve, Milan, coll. « Macadam », 2016 ((en) Graduation Day, 2013)  (ISBN 978-2-7459-6152-5)
-Série Dividing Eden
-Dividing Eden, Milan, 2018 ((en) Dividing Eden, 2017)  (ISBN 978-2-7459-9234-5)
-Le Royaume des vents, Milan, 2019 ((en) Eden Conquered, 2018)  (ISBN 978-2-7459-9235-2)
-Romans indépendants
-(en) Need, 2016
+Dernière Épreuve, Milan, coll. « Macadam », 2016 ((en) Graduation Day, 2013)  (ISBN 978-2-7459-6152-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joelle_Charbonneau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joelle_Charbonneau</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Dividing Eden</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dividing Eden, Milan, 2018 ((en) Dividing Eden, 2017)  (ISBN 978-2-7459-9234-5)
+Le Royaume des vents, Milan, 2019 ((en) Eden Conquered, 2018)  (ISBN 978-2-7459-9235-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Joelle_Charbonneau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joelle_Charbonneau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Need, 2016
 (en) Time Bomb, 2018</t>
         </is>
       </c>
